--- a/xlsx/人力资源_intext.xlsx
+++ b/xlsx/人力资源_intext.xlsx
@@ -15,57 +15,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>人力资源</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B3%87%E6%BA%90</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>人</t>
+  </si>
+  <si>
+    <t>政策_政策_公共政策_人力资源</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>人力资源管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>人力资本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E5%8A%9B</t>
+  </si>
+  <si>
+    <t>劳动力</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>人事管理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
+  </si>
+  <si>
+    <t>绩效管理</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Human_resource_consulting</t>
+  </si>
+  <si>
+    <t>en-Human resource consulting</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>人</t>
-  </si>
-  <si>
-    <t>政策_政策_管理_人力资源</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>人力资源管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>人力资本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%B3%E5%8A%A8%E5%8A%9B</t>
-  </si>
-  <si>
-    <t>劳动力</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E4%BA%8B%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>人事管理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B8%BE%E6%95%88%E7%AE%A1%E7%90%86</t>
-  </si>
-  <si>
-    <t>績效管理</t>
-  </si>
-  <si>
-    <t>https://en.wikipedia.org/wiki/Human_resource_consulting</t>
-  </si>
-  <si>
-    <t>en-Human resource consulting</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -414,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +477,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -648,6 +657,64 @@
         <v>4</v>
       </c>
       <c r="I8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>4</v>
+      </c>
+      <c r="I10" t="n">
         <v>3</v>
       </c>
     </row>
